--- a/mbs-perturbation/chatty/svm/nearmiss/chatty-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/chatty/svm/nearmiss/chatty-svm-poly-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.4666666666666666</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.52</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.8666666666666668</v>
+        <v>0.675</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/nearmiss/chatty-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/chatty/svm/nearmiss/chatty-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.375</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.5877777777777778</v>
       </c>
       <c r="E7" t="n">
-        <v>0.675</v>
+        <v>0.776</v>
       </c>
     </row>
   </sheetData>
